--- a/gp_aas_unique.xlsx
+++ b/gp_aas_unique.xlsx
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -757,25 +757,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -967,22 +967,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1368,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1457,13 +1457,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1642,22 +1642,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1782,22 +1782,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
